--- a/reports/_COSCO AGENT_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-10-08_25_.xlsx
+++ b/reports/_COSCO AGENT_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-10-08_25_.xlsx
@@ -385,12 +385,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -531,12 +532,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -556,7 +558,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -677,12 +679,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -696,7 +699,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -764,212 +767,220 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>Unstuffing Date</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>In Transport</t>
         </is>
       </c>
-      <c r="AD6" s="4" t="inlineStr">
+      <c r="AD7" s="4" t="inlineStr">
         <is>
           <t>In Trailer</t>
         </is>
       </c>
-      <c r="AE6" s="4" t="inlineStr">
+      <c r="AE7" s="4" t="inlineStr">
         <is>
           <t>Trailer #</t>
         </is>
       </c>
-      <c r="AF6" s="4" t="inlineStr">
+      <c r="AF7" s="4" t="inlineStr">
         <is>
           <t>In Remarks</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1110,12 +1121,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1129,7 +1141,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -1199,215 +1211,223 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>CNFCommodity</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>Current Depo</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>Out Date</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>Out Location</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>Total Lot</t>
         </is>
       </c>
-      <c r="AD6" s="4" t="inlineStr">
+      <c r="AD7" s="4" t="inlineStr">
         <is>
           <t>Total Weight</t>
         </is>
       </c>
-      <c r="AE6" s="4" t="inlineStr">
+      <c r="AE7" s="4" t="inlineStr">
         <is>
           <t>Out Transport</t>
         </is>
       </c>
-      <c r="AF6" s="4" t="inlineStr">
+      <c r="AF7" s="4" t="inlineStr">
         <is>
           <t>Out Remarks</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
-      <c r="AF7" s="0"/>
-      <c r="AG7" s="0"/>
-      <c r="AH7" s="0"/>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1548,12 +1568,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1567,7 +1588,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC37"/>
+  <dimension ref="A1:AC38"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -1632,266 +1653,168 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Trailer #</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>In Transport</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>In Remarks</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>9209</v>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>CBHU9064559</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>OEL STRAITS</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>2472/2018</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>DEMOTRANS</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0" t="inlineStr">
-        <is>
-          <t>RAW COTTON</t>
-        </is>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>479122</v>
-      </c>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0" t="inlineStr">
-        <is>
-          <t>2018-14359</t>
-        </is>
-      </c>
-      <c r="T7" s="0" t="d">
-        <v>2018-09-01T00:00:00</v>
-      </c>
-      <c r="U7" s="0" t="d">
-        <v>2018-09-02T00:00:00</v>
-      </c>
-      <c r="V7" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="W7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="0" t="inlineStr">
-        <is>
-          <t>COSU6166712590</t>
-        </is>
-      </c>
-      <c r="Z7" s="0" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>9210</v>
+        <v>9209</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>CCLU7727821</t>
+          <t>CBHU9064559</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -1947,12 +1870,12 @@
         </is>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>479126</v>
+        <v>479122</v>
       </c>
       <c r="R8" s="0"/>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>2018-14347</t>
+          <t>2018-14359</t>
         </is>
       </c>
       <c r="T8" s="0" t="d">
@@ -1992,11 +1915,11 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>9211</v>
+        <v>9210</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>CSNU6983344</t>
+          <t>CCLU7727821</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
@@ -2052,12 +1975,12 @@
         </is>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>479119</v>
+        <v>479126</v>
       </c>
       <c r="R9" s="0"/>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>2018-14364</t>
+          <t>2018-14347</t>
         </is>
       </c>
       <c r="T9" s="0" t="d">
@@ -2097,11 +2020,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>9212</v>
+        <v>9211</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>CSNU6101765</t>
+          <t>CSNU6983344</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -2157,12 +2080,12 @@
         </is>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>479116</v>
+        <v>479119</v>
       </c>
       <c r="R10" s="0"/>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>2018-14357</t>
+          <t>2018-14364</t>
         </is>
       </c>
       <c r="T10" s="0" t="d">
@@ -2202,11 +2125,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>9213</v>
+        <v>9212</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>CSNU6055931</t>
+          <t>CSNU6101765</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -2262,12 +2185,12 @@
         </is>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>479124</v>
+        <v>479116</v>
       </c>
       <c r="R11" s="0"/>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>2018-14356</t>
+          <t>2018-14357</t>
         </is>
       </c>
       <c r="T11" s="0" t="d">
@@ -2307,11 +2230,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>9214</v>
+        <v>9213</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>RFCU5034230</t>
+          <t>CSNU6055931</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -2367,12 +2290,12 @@
         </is>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>479125</v>
+        <v>479124</v>
       </c>
       <c r="R12" s="0"/>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>2018-14370</t>
+          <t>2018-14356</t>
         </is>
       </c>
       <c r="T12" s="0" t="d">
@@ -2412,11 +2335,11 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>9215</v>
+        <v>9214</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>DFSU7409627</t>
+          <t>RFCU5034230</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
@@ -2472,12 +2395,12 @@
         </is>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>479118</v>
+        <v>479125</v>
       </c>
       <c r="R13" s="0"/>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>2018-14377</t>
+          <t>2018-14370</t>
         </is>
       </c>
       <c r="T13" s="0" t="d">
@@ -2517,11 +2440,11 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>9216</v>
+        <v>9215</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>CSNU6109534</t>
+          <t>DFSU7409627</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -2577,12 +2500,12 @@
         </is>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>479121</v>
+        <v>479118</v>
       </c>
       <c r="R14" s="0"/>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>2018-14369</t>
+          <t>2018-14377</t>
         </is>
       </c>
       <c r="T14" s="0" t="d">
@@ -2622,11 +2545,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>9217</v>
+        <v>9216</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>CCLU7706583</t>
+          <t>CSNU6109534</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2682,12 +2605,12 @@
         </is>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>479127</v>
+        <v>479121</v>
       </c>
       <c r="R15" s="0"/>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>2018-14376</t>
+          <t>2018-14369</t>
         </is>
       </c>
       <c r="T15" s="0" t="d">
@@ -2727,11 +2650,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>9218</v>
+        <v>9217</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>CSNU6506568</t>
+          <t>CCLU7706583</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2787,12 +2710,12 @@
         </is>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>479128</v>
+        <v>479127</v>
       </c>
       <c r="R16" s="0"/>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>2018-14401</t>
+          <t>2018-14376</t>
         </is>
       </c>
       <c r="T16" s="0" t="d">
@@ -2832,11 +2755,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>9219</v>
+        <v>9218</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>CCLU7610820</t>
+          <t>CSNU6506568</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -2892,12 +2815,12 @@
         </is>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>479123</v>
+        <v>479128</v>
       </c>
       <c r="R17" s="0"/>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>2018-14400</t>
+          <t>2018-14401</t>
         </is>
       </c>
       <c r="T17" s="0" t="d">
@@ -2937,11 +2860,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>9220</v>
+        <v>9219</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>CCLU7491994</t>
+          <t>CCLU7610820</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -2997,12 +2920,12 @@
         </is>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>479120</v>
+        <v>479123</v>
       </c>
       <c r="R18" s="0"/>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>2018-14444</t>
+          <t>2018-14400</t>
         </is>
       </c>
       <c r="T18" s="0" t="d">
@@ -3042,11 +2965,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>9221</v>
+        <v>9220</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>FCIU9978486</t>
+          <t>CCLU7491994</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -3102,12 +3025,12 @@
         </is>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>479115</v>
+        <v>479120</v>
       </c>
       <c r="R19" s="0"/>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>2018-14449</t>
+          <t>2018-14444</t>
         </is>
       </c>
       <c r="T19" s="0" t="d">
@@ -3147,11 +3070,11 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>9222</v>
+        <v>9221</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>CSNU6264000</t>
+          <t>FCIU9978486</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
@@ -3207,19 +3130,19 @@
         </is>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>479112</v>
+        <v>479115</v>
       </c>
       <c r="R20" s="0"/>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>2018-14520</t>
+          <t>2018-14449</t>
         </is>
       </c>
       <c r="T20" s="0" t="d">
         <v>2018-09-01T00:00:00</v>
       </c>
       <c r="U20" s="0" t="d">
-        <v>2018-09-03T00:00:00</v>
+        <v>2018-09-02T00:00:00</v>
       </c>
       <c r="V20" s="0" t="inlineStr">
         <is>
@@ -3252,11 +3175,11 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>9223</v>
+        <v>9222</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>TCNU2156533</t>
+          <t>CSNU6264000</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
@@ -3312,12 +3235,12 @@
         </is>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>479117</v>
+        <v>479112</v>
       </c>
       <c r="R21" s="0"/>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>2018-14505</t>
+          <t>2018-14520</t>
         </is>
       </c>
       <c r="T21" s="0" t="d">
@@ -3357,11 +3280,11 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>9224</v>
+        <v>9223</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>CSLU6328258</t>
+          <t>TCNU2156533</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
@@ -3417,12 +3340,12 @@
         </is>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>479129</v>
+        <v>479117</v>
       </c>
       <c r="R22" s="0"/>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>2018-14445</t>
+          <t>2018-14505</t>
         </is>
       </c>
       <c r="T22" s="0" t="d">
@@ -3462,11 +3385,11 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>9225</v>
+        <v>9224</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>CCLU7173078</t>
+          <t>CSLU6328258</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
@@ -3522,12 +3445,12 @@
         </is>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>479113</v>
+        <v>479129</v>
       </c>
       <c r="R23" s="0"/>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>2018-14543</t>
+          <t>2018-14445</t>
         </is>
       </c>
       <c r="T23" s="0" t="d">
@@ -3567,11 +3490,11 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>9226</v>
+        <v>9225</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>FCIU9662311</t>
+          <t>CCLU7173078</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
@@ -3627,19 +3550,19 @@
         </is>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>479130</v>
+        <v>479113</v>
       </c>
       <c r="R24" s="0"/>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>2018-14475</t>
+          <t>2018-14543</t>
         </is>
       </c>
       <c r="T24" s="0" t="d">
         <v>2018-09-01T00:00:00</v>
       </c>
       <c r="U24" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
+        <v>2018-09-03T00:00:00</v>
       </c>
       <c r="V24" s="0" t="inlineStr">
         <is>
@@ -3672,11 +3595,11 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>9227</v>
+        <v>9226</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>CSNU6557689</t>
+          <t>FCIU9662311</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
@@ -3732,19 +3655,19 @@
         </is>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>479114</v>
+        <v>479130</v>
       </c>
       <c r="R25" s="0"/>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>2018-14348</t>
+          <t>2018-14475</t>
         </is>
       </c>
       <c r="T25" s="0" t="d">
         <v>2018-09-01T00:00:00</v>
       </c>
       <c r="U25" s="0" t="d">
-        <v>2018-09-06T00:00:00</v>
+        <v>2018-09-04T00:00:00</v>
       </c>
       <c r="V25" s="0" t="inlineStr">
         <is>
@@ -3777,11 +3700,11 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>9338</v>
+        <v>9227</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>FSCU8678924</t>
+          <t>CSNU6557689</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
@@ -3809,17 +3732,17 @@
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
-          <t>OEL DELTA</t>
+          <t>OEL STRAITS</t>
         </is>
       </c>
       <c r="I26" s="0" t="inlineStr">
         <is>
-          <t>2681/2018</t>
+          <t>2472/2018</t>
         </is>
       </c>
       <c r="J26" s="0" t="inlineStr">
         <is>
-          <t>MEHMUD INDUSTRIES (PVT.) LTD.</t>
+          <t>DEMOTRANS</t>
         </is>
       </c>
       <c r="K26" s="0" t="inlineStr">
@@ -3837,19 +3760,19 @@
         </is>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>19304</v>
+        <v>479114</v>
       </c>
       <c r="R26" s="0"/>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>2018-15079</t>
+          <t>2018-14348</t>
         </is>
       </c>
       <c r="T26" s="0" t="d">
-        <v>2018-09-08T00:00:00</v>
+        <v>2018-09-01T00:00:00</v>
       </c>
       <c r="U26" s="0" t="d">
-        <v>2018-09-08T00:00:00</v>
+        <v>2018-09-06T00:00:00</v>
       </c>
       <c r="V26" s="0" t="inlineStr">
         <is>
@@ -3866,11 +3789,11 @@
       </c>
       <c r="Y26" s="0" t="inlineStr">
         <is>
-          <t>COSU6103702930</t>
+          <t>COSU6166712590</t>
         </is>
       </c>
       <c r="Z26" s="0" t="n">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="AA26" s="0"/>
       <c r="AB26" s="0" t="inlineStr">
@@ -3882,11 +3805,11 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>9339</v>
+        <v>9338</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>CSLU6082668</t>
+          <t>FSCU8678924</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
@@ -3942,12 +3865,12 @@
         </is>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>19310</v>
+        <v>19304</v>
       </c>
       <c r="R27" s="0"/>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>2018-15088</t>
+          <t>2018-15079</t>
         </is>
       </c>
       <c r="T27" s="0" t="d">
@@ -3987,11 +3910,11 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>9340</v>
+        <v>9339</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>CBHU8773101</t>
+          <t>CSLU6082668</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
@@ -4047,19 +3970,19 @@
         </is>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>19302</v>
+        <v>19310</v>
       </c>
       <c r="R28" s="0"/>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>2018-15223</t>
+          <t>2018-15088</t>
         </is>
       </c>
       <c r="T28" s="0" t="d">
         <v>2018-09-08T00:00:00</v>
       </c>
       <c r="U28" s="0" t="d">
-        <v>2018-09-11T00:00:00</v>
+        <v>2018-09-08T00:00:00</v>
       </c>
       <c r="V28" s="0" t="inlineStr">
         <is>
@@ -4092,11 +4015,11 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>9341</v>
+        <v>9340</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>TCNU6343213</t>
+          <t>CBHU8773101</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
@@ -4152,12 +4075,12 @@
         </is>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>21696</v>
+        <v>19302</v>
       </c>
       <c r="R29" s="0"/>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>2018-15225</t>
+          <t>2018-15223</t>
         </is>
       </c>
       <c r="T29" s="0" t="d">
@@ -4197,11 +4120,11 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>9342</v>
+        <v>9341</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>TCNU2542048</t>
+          <t>TCNU6343213</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
@@ -4257,12 +4180,12 @@
         </is>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>21691</v>
+        <v>21696</v>
       </c>
       <c r="R30" s="0"/>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>2018-15234</t>
+          <t>2018-15225</t>
         </is>
       </c>
       <c r="T30" s="0" t="d">
@@ -4302,11 +4225,11 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>9343</v>
+        <v>9342</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>CCLU7662470</t>
+          <t>TCNU2542048</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
@@ -4362,12 +4285,12 @@
         </is>
       </c>
       <c r="Q31" s="0" t="n">
-        <v>19303</v>
+        <v>21691</v>
       </c>
       <c r="R31" s="0"/>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>2018-15238</t>
+          <t>2018-15234</t>
         </is>
       </c>
       <c r="T31" s="0" t="d">
@@ -4407,11 +4330,11 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>9344</v>
+        <v>9343</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>CSLU6028939</t>
+          <t>CCLU7662470</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
@@ -4467,12 +4390,12 @@
         </is>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>19309</v>
+        <v>19303</v>
       </c>
       <c r="R32" s="0"/>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>2018-15239</t>
+          <t>2018-15238</t>
         </is>
       </c>
       <c r="T32" s="0" t="d">
@@ -4512,11 +4435,11 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>9345</v>
+        <v>9344</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>FCIU7156042</t>
+          <t>CSLU6028939</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
@@ -4572,12 +4495,12 @@
         </is>
       </c>
       <c r="Q33" s="0" t="n">
-        <v>19306</v>
+        <v>19309</v>
       </c>
       <c r="R33" s="0"/>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>2018-15237</t>
+          <t>2018-15239</t>
         </is>
       </c>
       <c r="T33" s="0" t="d">
@@ -4617,11 +4540,11 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>9346</v>
+        <v>9345</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>DFSU7558410</t>
+          <t>FCIU7156042</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
@@ -4677,19 +4600,19 @@
         </is>
       </c>
       <c r="Q34" s="0" t="n">
-        <v>19307</v>
+        <v>19306</v>
       </c>
       <c r="R34" s="0"/>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>2018-15346</t>
+          <t>2018-15237</t>
         </is>
       </c>
       <c r="T34" s="0" t="d">
         <v>2018-09-08T00:00:00</v>
       </c>
       <c r="U34" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
+        <v>2018-09-11T00:00:00</v>
       </c>
       <c r="V34" s="0" t="inlineStr">
         <is>
@@ -4722,11 +4645,11 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>9347</v>
+        <v>9346</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>CCLU7480500</t>
+          <t>DFSU7558410</t>
         </is>
       </c>
       <c r="C35" s="0" t="n">
@@ -4782,19 +4705,19 @@
         </is>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>19308</v>
+        <v>19307</v>
       </c>
       <c r="R35" s="0"/>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>2018-15442</t>
+          <t>2018-15346</t>
         </is>
       </c>
       <c r="T35" s="0" t="d">
         <v>2018-09-08T00:00:00</v>
       </c>
       <c r="U35" s="0" t="d">
-        <v>2018-09-14T00:00:00</v>
+        <v>2018-09-12T00:00:00</v>
       </c>
       <c r="V35" s="0" t="inlineStr">
         <is>
@@ -4827,11 +4750,11 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>9348</v>
+        <v>9347</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>CBHU7068299</t>
+          <t>CCLU7480500</t>
         </is>
       </c>
       <c r="C36" s="0" t="n">
@@ -4887,12 +4810,12 @@
         </is>
       </c>
       <c r="Q36" s="0" t="n">
-        <v>19301</v>
+        <v>19308</v>
       </c>
       <c r="R36" s="0"/>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>2018-15440</t>
+          <t>2018-15442</t>
         </is>
       </c>
       <c r="T36" s="0" t="d">
@@ -4932,11 +4855,11 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>9349</v>
+        <v>9348</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>BMOU4612243</t>
+          <t>CBHU7068299</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
@@ -4992,12 +4915,12 @@
         </is>
       </c>
       <c r="Q37" s="0" t="n">
-        <v>19305</v>
+        <v>19301</v>
       </c>
       <c r="R37" s="0"/>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>2018-15441</t>
+          <t>2018-15440</t>
         </is>
       </c>
       <c r="T37" s="0" t="d">
@@ -5035,14 +4958,120 @@
       </c>
       <c r="AC37" s="0"/>
     </row>
+    <row r="38">
+      <c r="A38" s="0" t="n">
+        <v>9349</v>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>BMOU4612243</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>COA</t>
+        </is>
+      </c>
+      <c r="H38" s="0" t="inlineStr">
+        <is>
+          <t>OEL DELTA</t>
+        </is>
+      </c>
+      <c r="I38" s="0" t="inlineStr">
+        <is>
+          <t>2681/2018</t>
+        </is>
+      </c>
+      <c r="J38" s="0" t="inlineStr">
+        <is>
+          <t>MEHMUD INDUSTRIES (PVT.) LTD.</t>
+        </is>
+      </c>
+      <c r="K38" s="0" t="inlineStr">
+        <is>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="L38" s="0"/>
+      <c r="M38" s="0"/>
+      <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
+      <c r="P38" s="0" t="inlineStr">
+        <is>
+          <t>RAW COTTON</t>
+        </is>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>19305</v>
+      </c>
+      <c r="R38" s="0"/>
+      <c r="S38" s="0" t="inlineStr">
+        <is>
+          <t>2018-15441</t>
+        </is>
+      </c>
+      <c r="T38" s="0" t="d">
+        <v>2018-09-08T00:00:00</v>
+      </c>
+      <c r="U38" s="0" t="d">
+        <v>2018-09-14T00:00:00</v>
+      </c>
+      <c r="V38" s="0" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="W38" s="0" t="inlineStr">
+        <is>
+          <t>SAPL</t>
+        </is>
+      </c>
+      <c r="X38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="0" t="inlineStr">
+        <is>
+          <t>COSU6103702930</t>
+        </is>
+      </c>
+      <c r="Z38" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA38" s="0"/>
+      <c r="AB38" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC38" s="0"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -5195,12 +5224,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -5214,7 +5244,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -5272,148 +5302,156 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Vessel</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
